--- a/spec/diary設計.xlsx
+++ b/spec/diary設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\takajava\udemy\resevation-app\spec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\takajava\org\diary\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA3BFA9-1A44-4E9A-ACEA-1EA2D7C057AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAED4E9-964F-4F9B-935E-7090E8306FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{558642B4-9CB4-4107-AB4B-02EB74888843}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{558642B4-9CB4-4107-AB4B-02EB74888843}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,31 +567,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>wake_time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sleep_time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bz_startTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bz_endTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>diary_data</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>yotei_data</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -616,30 +592,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>kakebo_time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kakebo_kamoku</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kakebo_detail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kakebo_etc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kakebo_payKbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kakebo_kingaku</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スキルデータ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -669,18 +621,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>skil_recDate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>skil_kbn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>skil_data</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データベース</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -905,6 +845,66 @@
   </si>
   <si>
     <t>}</t>
+  </si>
+  <si>
+    <t>yoteiData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wakeTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sleepTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bzSartTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bzEndTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diaryData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kakeboTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kakeboKamoku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kakeboDetail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kakeboEtc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kakeboPayKbn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kakeboKingaku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skilRecDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skilKbn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skilData</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4368,27 +4368,27 @@
   <sheetData>
     <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B7" s="27" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B9" s="27" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B10" s="27" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B11" s="27" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B12" s="27" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
@@ -4402,372 +4402,372 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B13" s="27" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B14" s="27" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B15" s="27" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B16" s="27" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="27" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="27" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="27" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="27" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="27" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="27" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="27" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="27" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="27" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="27" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="27" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="27" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" s="27" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="27" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="27" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="27" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="27" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" s="27" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="27" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" s="27" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" s="27" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="27" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B39" s="27" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" s="27" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B41" s="27" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" s="27" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" s="27" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" s="27" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="27" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" s="27" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="27" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" s="27" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B51" s="27" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B52" s="27" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B53" s="27" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B54" s="27" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B55" s="27" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B56" s="27" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B57" s="27" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B58" s="27" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B59" s="27" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B60" s="27" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B61" s="27" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B62" s="27" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B64" s="27" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B65" s="27" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B66" s="27" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B68" s="27" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B69" s="27" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B70" s="27" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B71" s="27" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B72" s="27" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B73" s="27" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B74" s="27" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B76" s="27" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B77" s="27" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B78" s="27" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B79" s="27" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B80" s="27" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B81" s="27" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B82" s="27" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B83" s="27" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B84" s="27" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B86" s="27" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B87" s="27" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B88" s="27" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B89" s="27" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B90" s="27" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B91" s="27" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B92" s="27" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4780,8 +4780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD2863-2365-4E20-A89C-924B639CFA90}">
   <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4795,7 +4795,7 @@
         <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.45">
@@ -4809,7 +4809,7 @@
         <v>103</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
@@ -4820,10 +4820,10 @@
         <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="H3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
@@ -4834,10 +4834,10 @@
         <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
@@ -4848,10 +4848,10 @@
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
@@ -4862,10 +4862,10 @@
         <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H6" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
@@ -4876,10 +4876,10 @@
         <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="H7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
@@ -4887,35 +4887,35 @@
         <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
         <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="H10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
@@ -4923,13 +4923,13 @@
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" t="s">
         <v>115</v>
-      </c>
-      <c r="H11" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
@@ -4937,13 +4937,13 @@
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="H12" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
@@ -4951,13 +4951,13 @@
         <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="H13" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
@@ -4965,13 +4965,13 @@
         <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="H14" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
@@ -4979,66 +4979,66 @@
         <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="H15" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H16" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="H17" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="H19" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5052,7 +5052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B37502-D4DA-4425-9B76-5E7CC9D27EEF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="BI15" sqref="BI15"/>
     </sheetView>
   </sheetViews>

--- a/spec/diary設計.xlsx
+++ b/spec/diary設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\takajava\org\diary\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAED4E9-964F-4F9B-935E-7090E8306FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5E11AC-FD6C-4A7D-AB18-B3BFDA566AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{558642B4-9CB4-4107-AB4B-02EB74888843}"/>
+    <workbookView xWindow="1020" yWindow="144" windowWidth="21600" windowHeight="11328" activeTab="3" xr2:uid="{558642B4-9CB4-4107-AB4B-02EB74888843}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="203">
   <si>
     <t>設計書</t>
     <rPh sb="0" eb="3">
@@ -904,6 +904,10 @@
   </si>
   <si>
     <t>skilData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kakeiboArray</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4781,7 +4785,7 @@
   <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4902,6 +4906,9 @@
       </c>
       <c r="D9" t="s">
         <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">

--- a/spec/diary設計.xlsx
+++ b/spec/diary設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\takajava\org\diary\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCB6DFF-FB27-4178-9008-B4BDCA850619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEC1791-7A1F-4235-8AF0-33EE0B9C4843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{558642B4-9CB4-4107-AB4B-02EB74888843}"/>
+    <workbookView xWindow="5064" yWindow="1176" windowWidth="17280" windowHeight="9060" activeTab="7" xr2:uid="{558642B4-9CB4-4107-AB4B-02EB74888843}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20461,8 +20461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F8AD26-33EA-4F77-B7A6-8BBB407EE9F0}">
   <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.3984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/spec/diary設計.xlsx
+++ b/spec/diary設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\takajava\org\diary\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEC1791-7A1F-4235-8AF0-33EE0B9C4843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B974884-2F16-4E3B-BDD7-B1F07EC8A23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5064" yWindow="1176" windowWidth="17280" windowHeight="9060" activeTab="7" xr2:uid="{558642B4-9CB4-4107-AB4B-02EB74888843}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{558642B4-9CB4-4107-AB4B-02EB74888843}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="フロー" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
     <sheet name="家計簿分類" sheetId="3" r:id="rId8"/>
+    <sheet name="知識" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">家計簿分類!$D$3:$G$28</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="332">
   <si>
     <t>設計書</t>
     <rPh sb="0" eb="3">
@@ -9850,6 +9851,10 @@
     <rPh sb="0" eb="2">
       <t>ニュウキン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScriptのフレームワーク</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12455,9 +12460,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -12477,18 +12482,18 @@
       <selection activeCell="AL35" sqref="AL35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.796875" customWidth="1"/>
+    <col min="28" max="28" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -12503,12 +12508,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -12536,7 +12541,7 @@
       <c r="AA7" s="6"/>
       <c r="AB7" s="7"/>
     </row>
-    <row r="8" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -12564,7 +12569,7 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="10"/>
     </row>
-    <row r="9" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="11"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -12592,7 +12597,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="12"/>
     </row>
-    <row r="11" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -12600,7 +12605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
@@ -12640,12 +12645,12 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="15" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -12675,7 +12680,7 @@
       <c r="AC16" s="6"/>
       <c r="AD16" s="7"/>
     </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -12705,7 +12710,7 @@
       <c r="AC17" s="9"/>
       <c r="AD17" s="10"/>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -12735,7 +12740,7 @@
       <c r="AC18" s="9"/>
       <c r="AD18" s="10"/>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -12765,7 +12770,7 @@
       <c r="AC19" s="9"/>
       <c r="AD19" s="10"/>
     </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -12795,7 +12800,7 @@
       <c r="AC20" s="9"/>
       <c r="AD20" s="10"/>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -12825,7 +12830,7 @@
       <c r="AC21" s="9"/>
       <c r="AD21" s="10"/>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -12855,7 +12860,7 @@
       <c r="AC22" s="9"/>
       <c r="AD22" s="10"/>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -12885,7 +12890,7 @@
       <c r="AC23" s="9"/>
       <c r="AD23" s="10"/>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="11"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -12915,12 +12920,12 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="12"/>
     </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
@@ -12962,7 +12967,7 @@
       <c r="AC27" s="3"/>
       <c r="AD27" s="4"/>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="16" t="s">
         <v>16</v>
       </c>
@@ -13006,7 +13011,7 @@
       <c r="AC28" s="9"/>
       <c r="AD28" s="10"/>
     </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="16" t="s">
         <v>82</v>
       </c>
@@ -13050,7 +13055,7 @@
       <c r="AC29" s="9"/>
       <c r="AD29" s="10"/>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -13080,7 +13085,7 @@
       <c r="AC30" s="9"/>
       <c r="AD30" s="10"/>
     </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -13110,7 +13115,7 @@
       <c r="AC31" s="9"/>
       <c r="AD31" s="10"/>
     </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -13140,7 +13145,7 @@
       <c r="AC32" s="9"/>
       <c r="AD32" s="10"/>
     </row>
-    <row r="33" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -13170,7 +13175,7 @@
       <c r="AC33" s="9"/>
       <c r="AD33" s="10"/>
     </row>
-    <row r="34" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="11"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -13200,7 +13205,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="12"/>
     </row>
-    <row r="35" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" t="s">
         <v>63</v>
       </c>
@@ -13208,12 +13213,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="2" t="s">
         <v>90</v>
       </c>
@@ -13247,7 +13252,7 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="4"/>
     </row>
-    <row r="39" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -13277,7 +13282,7 @@
       <c r="AC39" s="9"/>
       <c r="AD39" s="10"/>
     </row>
-    <row r="40" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -13307,7 +13312,7 @@
       <c r="AC40" s="9"/>
       <c r="AD40" s="10"/>
     </row>
-    <row r="41" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -13337,7 +13342,7 @@
       <c r="AC41" s="9"/>
       <c r="AD41" s="10"/>
     </row>
-    <row r="42" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -13367,7 +13372,7 @@
       <c r="AC42" s="9"/>
       <c r="AD42" s="10"/>
     </row>
-    <row r="43" spans="3:30" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="11"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -13411,32 +13416,32 @@
       <selection activeCell="R79" sqref="R79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="1.6640625" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="1.69921875" style="27"/>
+    <col min="1" max="16384" width="1.6640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="27" t="s">
         <v>121</v>
       </c>
@@ -13450,372 +13455,372 @@
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="27" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="27" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="27" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="27" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="27" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="27" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="27" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="27" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="27" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="27" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="27" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="27" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="27" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="27" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="27" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="27" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="27" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="27" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="27" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="27" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="27" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="27" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="27" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="27" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="27" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="27" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="27" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="27" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="27" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="27" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="27" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="27" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="27" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="27" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="27" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="27" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="27" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="27" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="27" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="27" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="27" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="27" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="27" t="s">
         <v>186</v>
       </c>
@@ -13834,13 +13839,13 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" t="s">
         <v>102</v>
       </c>
@@ -13848,7 +13853,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -13862,7 +13867,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>95</v>
       </c>
@@ -13876,7 +13881,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>96</v>
       </c>
@@ -13890,7 +13895,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>99</v>
       </c>
@@ -13904,7 +13909,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>100</v>
       </c>
@@ -13918,7 +13923,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>101</v>
       </c>
@@ -13932,7 +13937,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>88</v>
       </c>
@@ -13946,7 +13951,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>105</v>
       </c>
@@ -13957,7 +13962,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" t="s">
         <v>107</v>
       </c>
@@ -13971,7 +13976,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" t="s">
         <v>65</v>
       </c>
@@ -13985,7 +13990,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -13999,7 +14004,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
         <v>77</v>
       </c>
@@ -14013,7 +14018,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" t="s">
         <v>76</v>
       </c>
@@ -14027,7 +14032,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
         <v>64</v>
       </c>
@@ -14041,7 +14046,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>108</v>
       </c>
@@ -14052,7 +14057,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" t="s">
         <v>110</v>
       </c>
@@ -14066,7 +14071,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" t="s">
         <v>109</v>
       </c>
@@ -14080,7 +14085,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" t="s">
         <v>111</v>
       </c>
@@ -14109,12 +14114,12 @@
       <selection activeCell="AS31" sqref="AS31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="9.6" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="2.69921875" style="29"/>
+    <col min="1" max="16384" width="2.6640625" style="29"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" s="30" t="s">
         <v>203</v>
       </c>
@@ -14182,7 +14187,7 @@
       <c r="BM3" s="31"/>
       <c r="BN3" s="31"/>
     </row>
-    <row r="4" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="32"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
@@ -14246,7 +14251,7 @@
       <c r="BM4" s="31"/>
       <c r="BN4" s="31"/>
     </row>
-    <row r="5" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" s="33" t="s">
         <v>204</v>
       </c>
@@ -14314,7 +14319,7 @@
       <c r="BM5" s="31"/>
       <c r="BN5" s="31"/>
     </row>
-    <row r="6" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" s="34" t="s">
         <v>205</v>
       </c>
@@ -14382,7 +14387,7 @@
       <c r="BM6" s="31"/>
       <c r="BN6" s="31"/>
     </row>
-    <row r="7" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="32"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
@@ -14448,7 +14453,7 @@
       <c r="BM7" s="31"/>
       <c r="BN7" s="31"/>
     </row>
-    <row r="8" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" s="34" t="s">
         <v>206</v>
       </c>
@@ -14516,7 +14521,7 @@
       <c r="BM8" s="31"/>
       <c r="BN8" s="31"/>
     </row>
-    <row r="9" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -14582,7 +14587,7 @@
       <c r="BM9" s="31"/>
       <c r="BN9" s="31"/>
     </row>
-    <row r="10" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="34" t="s">
         <v>207</v>
       </c>
@@ -14650,7 +14655,7 @@
       <c r="BM10" s="31"/>
       <c r="BN10" s="31"/>
     </row>
-    <row r="11" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="32"/>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
@@ -14714,7 +14719,7 @@
       <c r="BM11" s="31"/>
       <c r="BN11" s="31"/>
     </row>
-    <row r="12" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="34" t="s">
         <v>208</v>
       </c>
@@ -14782,7 +14787,7 @@
       <c r="BM12" s="31"/>
       <c r="BN12" s="31"/>
     </row>
-    <row r="13" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="34" t="s">
         <v>209</v>
       </c>
@@ -14850,7 +14855,7 @@
       <c r="BM13" s="31"/>
       <c r="BN13" s="31"/>
     </row>
-    <row r="14" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="34" t="s">
         <v>210</v>
       </c>
@@ -14918,7 +14923,7 @@
       <c r="BM14" s="31"/>
       <c r="BN14" s="31"/>
     </row>
-    <row r="15" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="34" t="s">
         <v>211</v>
       </c>
@@ -14986,7 +14991,7 @@
       <c r="BM15" s="31"/>
       <c r="BN15" s="31"/>
     </row>
-    <row r="16" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="34" t="s">
         <v>208</v>
       </c>
@@ -15054,7 +15059,7 @@
       <c r="BM16" s="31"/>
       <c r="BN16" s="31"/>
     </row>
-    <row r="17" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="34" t="s">
         <v>212</v>
       </c>
@@ -15122,7 +15127,7 @@
       <c r="BM17" s="31"/>
       <c r="BN17" s="31"/>
     </row>
-    <row r="18" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="34" t="s">
         <v>213</v>
       </c>
@@ -15190,7 +15195,7 @@
       <c r="BM18" s="31"/>
       <c r="BN18" s="31"/>
     </row>
-    <row r="19" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="34" t="s">
         <v>211</v>
       </c>
@@ -15258,7 +15263,7 @@
       <c r="BM19" s="31"/>
       <c r="BN19" s="31"/>
     </row>
-    <row r="20" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="34" t="s">
         <v>208</v>
       </c>
@@ -15326,7 +15331,7 @@
       <c r="BM20" s="31"/>
       <c r="BN20" s="31"/>
     </row>
-    <row r="21" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="34" t="s">
         <v>214</v>
       </c>
@@ -15394,7 +15399,7 @@
       <c r="BM21" s="31"/>
       <c r="BN21" s="31"/>
     </row>
-    <row r="22" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="34" t="s">
         <v>215</v>
       </c>
@@ -15462,7 +15467,7 @@
       <c r="BM22" s="31"/>
       <c r="BN22" s="31"/>
     </row>
-    <row r="23" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="34" t="s">
         <v>211</v>
       </c>
@@ -15530,7 +15535,7 @@
       <c r="BM23" s="31"/>
       <c r="BN23" s="31"/>
     </row>
-    <row r="24" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="34" t="s">
         <v>216</v>
       </c>
@@ -15598,7 +15603,7 @@
       <c r="BM24" s="31"/>
       <c r="BN24" s="31"/>
     </row>
-    <row r="25" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="34" t="s">
         <v>217</v>
       </c>
@@ -15666,7 +15671,7 @@
       <c r="BM25" s="31"/>
       <c r="BN25" s="31"/>
     </row>
-    <row r="26" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="34" t="s">
         <v>211</v>
       </c>
@@ -15734,7 +15739,7 @@
       <c r="BM26" s="31"/>
       <c r="BN26" s="31"/>
     </row>
-    <row r="27" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" s="32"/>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
@@ -15798,7 +15803,7 @@
       <c r="BM27" s="31"/>
       <c r="BN27" s="31"/>
     </row>
-    <row r="28" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="34" t="s">
         <v>218</v>
       </c>
@@ -15866,7 +15871,7 @@
       <c r="BM28" s="31"/>
       <c r="BN28" s="31"/>
     </row>
-    <row r="29" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" s="32"/>
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
@@ -15932,7 +15937,7 @@
       <c r="BM29" s="31"/>
       <c r="BN29" s="31"/>
     </row>
-    <row r="30" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" s="34" t="s">
         <v>219</v>
       </c>
@@ -16000,7 +16005,7 @@
       <c r="BM30" s="31"/>
       <c r="BN30" s="31"/>
     </row>
-    <row r="31" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" s="32"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
@@ -16066,7 +16071,7 @@
       <c r="BM31" s="31"/>
       <c r="BN31" s="31"/>
     </row>
-    <row r="32" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" s="32"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
@@ -16132,7 +16137,7 @@
       <c r="BM32" s="31"/>
       <c r="BN32" s="31"/>
     </row>
-    <row r="33" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D33" s="34" t="s">
         <v>208</v>
       </c>
@@ -16200,7 +16205,7 @@
       <c r="BM33" s="31"/>
       <c r="BN33" s="31"/>
     </row>
-    <row r="34" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" s="34" t="s">
         <v>220</v>
       </c>
@@ -16268,7 +16273,7 @@
       <c r="BM34" s="31"/>
       <c r="BN34" s="31"/>
     </row>
-    <row r="35" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D35" s="34" t="s">
         <v>221</v>
       </c>
@@ -16336,7 +16341,7 @@
       <c r="BM35" s="31"/>
       <c r="BN35" s="31"/>
     </row>
-    <row r="36" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" s="34" t="s">
         <v>211</v>
       </c>
@@ -16404,7 +16409,7 @@
       <c r="BM36" s="31"/>
       <c r="BN36" s="31"/>
     </row>
-    <row r="37" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D37" s="34" t="s">
         <v>208</v>
       </c>
@@ -16472,7 +16477,7 @@
       <c r="BM37" s="31"/>
       <c r="BN37" s="31"/>
     </row>
-    <row r="38" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" s="34" t="s">
         <v>222</v>
       </c>
@@ -16540,7 +16545,7 @@
       <c r="BM38" s="31"/>
       <c r="BN38" s="31"/>
     </row>
-    <row r="39" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D39" s="34" t="s">
         <v>223</v>
       </c>
@@ -16608,7 +16613,7 @@
       <c r="BM39" s="31"/>
       <c r="BN39" s="31"/>
     </row>
-    <row r="40" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" s="34" t="s">
         <v>211</v>
       </c>
@@ -16676,7 +16681,7 @@
       <c r="BM40" s="31"/>
       <c r="BN40" s="31"/>
     </row>
-    <row r="41" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D41" s="34" t="s">
         <v>208</v>
       </c>
@@ -16744,7 +16749,7 @@
       <c r="BM41" s="31"/>
       <c r="BN41" s="31"/>
     </row>
-    <row r="42" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D42" s="34" t="s">
         <v>224</v>
       </c>
@@ -16812,7 +16817,7 @@
       <c r="BM42" s="31"/>
       <c r="BN42" s="31"/>
     </row>
-    <row r="43" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D43" s="34" t="s">
         <v>225</v>
       </c>
@@ -16880,7 +16885,7 @@
       <c r="BM43" s="31"/>
       <c r="BN43" s="31"/>
     </row>
-    <row r="44" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D44" s="34" t="s">
         <v>211</v>
       </c>
@@ -16948,7 +16953,7 @@
       <c r="BM44" s="31"/>
       <c r="BN44" s="31"/>
     </row>
-    <row r="45" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D45" s="34" t="s">
         <v>208</v>
       </c>
@@ -17016,7 +17021,7 @@
       <c r="BM45" s="31"/>
       <c r="BN45" s="31"/>
     </row>
-    <row r="46" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D46" s="34" t="s">
         <v>226</v>
       </c>
@@ -17084,7 +17089,7 @@
       <c r="BM46" s="31"/>
       <c r="BN46" s="31"/>
     </row>
-    <row r="47" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D47" s="34" t="s">
         <v>227</v>
       </c>
@@ -17152,7 +17157,7 @@
       <c r="BM47" s="31"/>
       <c r="BN47" s="31"/>
     </row>
-    <row r="48" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D48" s="34" t="s">
         <v>228</v>
       </c>
@@ -17220,7 +17225,7 @@
       <c r="BM48" s="31"/>
       <c r="BN48" s="31"/>
     </row>
-    <row r="49" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D49" s="34" t="s">
         <v>211</v>
       </c>
@@ -17288,7 +17293,7 @@
       <c r="BM49" s="31"/>
       <c r="BN49" s="31"/>
     </row>
-    <row r="50" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D50" s="32"/>
       <c r="E50" s="31"/>
       <c r="F50" s="31"/>
@@ -17354,7 +17359,7 @@
       <c r="BM50" s="31"/>
       <c r="BN50" s="31"/>
     </row>
-    <row r="51" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D51" s="34" t="s">
         <v>229</v>
       </c>
@@ -17422,7 +17427,7 @@
       <c r="BM51" s="31"/>
       <c r="BN51" s="31"/>
     </row>
-    <row r="52" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D52" s="32"/>
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
@@ -17486,7 +17491,7 @@
       <c r="BM52" s="31"/>
       <c r="BN52" s="31"/>
     </row>
-    <row r="53" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D53" s="34" t="s">
         <v>230</v>
       </c>
@@ -17554,7 +17559,7 @@
       <c r="BM53" s="31"/>
       <c r="BN53" s="31"/>
     </row>
-    <row r="54" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D54" s="34" t="s">
         <v>231</v>
       </c>
@@ -17622,7 +17627,7 @@
       <c r="BM54" s="31"/>
       <c r="BN54" s="31"/>
     </row>
-    <row r="55" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D55" s="34" t="s">
         <v>211</v>
       </c>
@@ -17688,7 +17693,7 @@
       <c r="BM55" s="31"/>
       <c r="BN55" s="31"/>
     </row>
-    <row r="56" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D56" s="32"/>
       <c r="E56" s="31"/>
       <c r="F56" s="31"/>
@@ -17754,7 +17759,7 @@
       <c r="BM56" s="31"/>
       <c r="BN56" s="31"/>
     </row>
-    <row r="57" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D57" s="34" t="s">
         <v>229</v>
       </c>
@@ -17822,7 +17827,7 @@
       <c r="BM57" s="31"/>
       <c r="BN57" s="31"/>
     </row>
-    <row r="58" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D58" s="32"/>
       <c r="E58" s="31"/>
       <c r="F58" s="31"/>
@@ -17888,7 +17893,7 @@
       <c r="BM58" s="31"/>
       <c r="BN58" s="31"/>
     </row>
-    <row r="59" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D59" s="34" t="s">
         <v>232</v>
       </c>
@@ -17956,7 +17961,7 @@
       <c r="BM59" s="31"/>
       <c r="BN59" s="31"/>
     </row>
-    <row r="60" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D60" s="34" t="s">
         <v>233</v>
       </c>
@@ -18024,7 +18029,7 @@
       <c r="BM60" s="31"/>
       <c r="BN60" s="31"/>
     </row>
-    <row r="61" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D61" s="32"/>
       <c r="E61" s="31"/>
       <c r="F61" s="31"/>
@@ -18090,7 +18095,7 @@
       <c r="BM61" s="31"/>
       <c r="BN61" s="31"/>
     </row>
-    <row r="62" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D62" s="34" t="s">
         <v>234</v>
       </c>
@@ -18158,7 +18163,7 @@
       <c r="BM62" s="31"/>
       <c r="BN62" s="31"/>
     </row>
-    <row r="63" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D63" s="34" t="s">
         <v>235</v>
       </c>
@@ -18224,7 +18229,7 @@
       <c r="BM63" s="31"/>
       <c r="BN63" s="31"/>
     </row>
-    <row r="64" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D64" s="34" t="s">
         <v>236</v>
       </c>
@@ -18292,7 +18297,7 @@
       <c r="BM64" s="31"/>
       <c r="BN64" s="31"/>
     </row>
-    <row r="65" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D65" s="34" t="s">
         <v>237</v>
       </c>
@@ -18360,7 +18365,7 @@
       <c r="BM65" s="31"/>
       <c r="BN65" s="31"/>
     </row>
-    <row r="66" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D66" s="34" t="s">
         <v>238</v>
       </c>
@@ -18428,7 +18433,7 @@
       <c r="BM66" s="31"/>
       <c r="BN66" s="31"/>
     </row>
-    <row r="67" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D67" s="34" t="s">
         <v>235</v>
       </c>
@@ -18494,7 +18499,7 @@
       <c r="BM67" s="31"/>
       <c r="BN67" s="31"/>
     </row>
-    <row r="68" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D68" s="34" t="s">
         <v>239</v>
       </c>
@@ -18562,7 +18567,7 @@
       <c r="BM68" s="31"/>
       <c r="BN68" s="31"/>
     </row>
-    <row r="69" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D69" s="34" t="s">
         <v>240</v>
       </c>
@@ -18630,7 +18635,7 @@
       <c r="BM69" s="31"/>
       <c r="BN69" s="31"/>
     </row>
-    <row r="70" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D70" s="34" t="s">
         <v>238</v>
       </c>
@@ -18698,7 +18703,7 @@
       <c r="BM70" s="31"/>
       <c r="BN70" s="31"/>
     </row>
-    <row r="71" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D71" s="34" t="s">
         <v>235</v>
       </c>
@@ -18764,7 +18769,7 @@
       <c r="BM71" s="31"/>
       <c r="BN71" s="31"/>
     </row>
-    <row r="72" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D72" s="34" t="s">
         <v>241</v>
       </c>
@@ -18832,7 +18837,7 @@
       <c r="BM72" s="31"/>
       <c r="BN72" s="31"/>
     </row>
-    <row r="73" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D73" s="34" t="s">
         <v>242</v>
       </c>
@@ -18900,7 +18905,7 @@
       <c r="BM73" s="31"/>
       <c r="BN73" s="31"/>
     </row>
-    <row r="74" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D74" s="34" t="s">
         <v>243</v>
       </c>
@@ -18968,7 +18973,7 @@
       <c r="BM74" s="31"/>
       <c r="BN74" s="31"/>
     </row>
-    <row r="75" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D75" s="34" t="s">
         <v>244</v>
       </c>
@@ -19036,7 +19041,7 @@
       <c r="BM75" s="31"/>
       <c r="BN75" s="31"/>
     </row>
-    <row r="76" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D76" s="34" t="s">
         <v>245</v>
       </c>
@@ -19104,7 +19109,7 @@
       <c r="BM76" s="31"/>
       <c r="BN76" s="31"/>
     </row>
-    <row r="77" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D77" s="34" t="s">
         <v>238</v>
       </c>
@@ -19172,7 +19177,7 @@
       <c r="BM77" s="31"/>
       <c r="BN77" s="31"/>
     </row>
-    <row r="78" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D78" s="34" t="s">
         <v>246</v>
       </c>
@@ -19238,7 +19243,7 @@
       <c r="BM78" s="31"/>
       <c r="BN78" s="31"/>
     </row>
-    <row r="79" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D79" s="34" t="s">
         <v>246</v>
       </c>
@@ -19306,7 +19311,7 @@
       <c r="BM79" s="31"/>
       <c r="BN79" s="31"/>
     </row>
-    <row r="80" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D80" s="34" t="s">
         <v>247</v>
       </c>
@@ -19372,7 +19377,7 @@
       <c r="BM80" s="31"/>
       <c r="BN80" s="31"/>
     </row>
-    <row r="81" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D81" s="34" t="s">
         <v>248</v>
       </c>
@@ -19440,7 +19445,7 @@
       <c r="BM81" s="31"/>
       <c r="BN81" s="31"/>
     </row>
-    <row r="82" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D82" s="32"/>
       <c r="E82" s="31"/>
       <c r="F82" s="31"/>
@@ -19506,7 +19511,7 @@
       <c r="BM82" s="31"/>
       <c r="BN82" s="31"/>
     </row>
-    <row r="83" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D83" s="34" t="s">
         <v>211</v>
       </c>
@@ -19574,7 +19579,7 @@
       <c r="BM83" s="31"/>
       <c r="BN83" s="31"/>
     </row>
-    <row r="84" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D84" s="34" t="s">
         <v>218</v>
       </c>
@@ -19642,7 +19647,7 @@
       <c r="BM84" s="31"/>
       <c r="BN84" s="31"/>
     </row>
-    <row r="85" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D85" s="32"/>
       <c r="E85" s="31"/>
       <c r="F85" s="31"/>
@@ -19708,7 +19713,7 @@
       <c r="BM85" s="31"/>
       <c r="BN85" s="31"/>
     </row>
-    <row r="86" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D86" s="32"/>
       <c r="E86" s="31"/>
       <c r="F86" s="31"/>
@@ -19774,7 +19779,7 @@
       <c r="BM86" s="31"/>
       <c r="BN86" s="31"/>
     </row>
-    <row r="87" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D87" s="34" t="s">
         <v>249</v>
       </c>
@@ -19842,7 +19847,7 @@
       <c r="BM87" s="31"/>
       <c r="BN87" s="31"/>
     </row>
-    <row r="88" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D88" s="34" t="s">
         <v>249</v>
       </c>
@@ -19910,7 +19915,7 @@
       <c r="BM88" s="31"/>
       <c r="BN88" s="31"/>
     </row>
-    <row r="89" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D89" s="32"/>
       <c r="E89" s="31"/>
       <c r="F89" s="31"/>
@@ -19974,7 +19979,7 @@
       <c r="BM89" s="31"/>
       <c r="BN89" s="31"/>
     </row>
-    <row r="90" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D90" s="34" t="s">
         <v>250</v>
       </c>
@@ -20042,7 +20047,7 @@
       <c r="BM90" s="31"/>
       <c r="BN90" s="31"/>
     </row>
-    <row r="91" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D91" s="34" t="s">
         <v>251</v>
       </c>
@@ -20110,7 +20115,7 @@
       <c r="BM91" s="31"/>
       <c r="BN91" s="31"/>
     </row>
-    <row r="92" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D92" s="34" t="s">
         <v>252</v>
       </c>
@@ -20178,7 +20183,7 @@
       <c r="BM92" s="31"/>
       <c r="BN92" s="31"/>
     </row>
-    <row r="93" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D93" s="34" t="s">
         <v>218</v>
       </c>
@@ -20244,7 +20249,7 @@
       <c r="BM93" s="31"/>
       <c r="BN93" s="31"/>
     </row>
-    <row r="94" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D94" s="34" t="s">
         <v>253</v>
       </c>
@@ -20312,7 +20317,7 @@
       <c r="BM94" s="31"/>
       <c r="BN94" s="31"/>
     </row>
-    <row r="95" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D95" s="34" t="s">
         <v>254</v>
       </c>
@@ -20349,7 +20354,7 @@
       <c r="AI95" s="31"/>
       <c r="AJ95" s="31"/>
     </row>
-    <row r="96" spans="4:66" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="4:66" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D96" s="33" t="s">
         <v>255</v>
       </c>
@@ -20386,7 +20391,7 @@
       <c r="AI96" s="31"/>
       <c r="AJ96" s="31"/>
     </row>
-    <row r="97" spans="4:36" ht="9.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="4:36" ht="9.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D97" s="31"/>
       <c r="E97" s="31"/>
       <c r="F97" s="31"/>
@@ -20436,7 +20441,7 @@
       <selection activeCell="BI15" sqref="BI15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20450,7 +20455,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20461,21 +20466,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F8AD26-33EA-4F77-B7A6-8BBB407EE9F0}">
   <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.3984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="22.4140625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="5.59765625" customWidth="1"/>
-    <col min="7" max="7" width="69.796875" customWidth="1"/>
+    <col min="2" max="2" width="5.58203125" customWidth="1"/>
+    <col min="7" max="7" width="69.83203125" customWidth="1"/>
     <col min="8" max="8" width="3.5" customWidth="1"/>
-    <col min="9" max="10" width="3.796875" customWidth="1"/>
-    <col min="11" max="11" width="6.8984375" customWidth="1"/>
+    <col min="9" max="10" width="3.83203125" customWidth="1"/>
+    <col min="11" max="11" width="6.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
         <v>67</v>
@@ -20490,7 +20495,7 @@
       </c>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -20503,7 +20508,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="8"/>
       <c r="C4" s="39" t="s">
         <v>39</v>
@@ -20525,7 +20530,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="8"/>
       <c r="C5" s="39"/>
       <c r="D5" s="17" t="s">
@@ -20547,7 +20552,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="8"/>
       <c r="C6" s="39"/>
       <c r="D6" s="17" t="s">
@@ -20569,7 +20574,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="8"/>
       <c r="C7" s="39"/>
       <c r="D7" s="17" t="s">
@@ -20589,7 +20594,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="8"/>
       <c r="C8" s="39"/>
       <c r="D8" s="17" t="s">
@@ -20609,7 +20614,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="8"/>
       <c r="C9" s="39"/>
       <c r="D9" s="17" t="s">
@@ -20629,7 +20634,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="8"/>
       <c r="C10" s="39"/>
       <c r="D10" s="17" t="s">
@@ -20645,7 +20650,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="8"/>
       <c r="C11" s="39"/>
       <c r="D11" s="17" t="s">
@@ -20666,7 +20671,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="8"/>
       <c r="C12" s="39"/>
       <c r="D12" s="17" t="s">
@@ -20687,7 +20692,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="8"/>
       <c r="C13" s="39"/>
       <c r="D13" s="17" t="s">
@@ -20706,7 +20711,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="8"/>
       <c r="C14" s="39"/>
       <c r="D14" s="17" t="s">
@@ -20722,7 +20727,7 @@
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="8"/>
       <c r="C15" s="39" t="s">
         <v>59</v>
@@ -20742,7 +20747,7 @@
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="8"/>
       <c r="C16" s="39"/>
       <c r="D16" s="22" t="s">
@@ -20758,7 +20763,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="8"/>
       <c r="C17" s="39"/>
       <c r="D17" s="17" t="s">
@@ -20776,7 +20781,7 @@
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" s="8"/>
       <c r="C18" s="39"/>
       <c r="D18" s="17" t="s">
@@ -20794,7 +20799,7 @@
       </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="8"/>
       <c r="C19" s="39"/>
       <c r="D19" s="17" t="s">
@@ -20810,7 +20815,7 @@
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="8"/>
       <c r="C20" s="39"/>
       <c r="D20" s="17" t="s">
@@ -20826,7 +20831,7 @@
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="8"/>
       <c r="C21" s="39"/>
       <c r="D21" s="17" t="s">
@@ -20842,7 +20847,7 @@
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="8"/>
       <c r="C22" s="39"/>
       <c r="D22" s="21" t="s">
@@ -20858,7 +20863,7 @@
       <c r="G22" s="18"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="8"/>
       <c r="C23" s="39"/>
       <c r="D23" s="17" t="s">
@@ -20876,7 +20881,7 @@
       </c>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="8"/>
       <c r="C24" s="39"/>
       <c r="D24" s="17" t="s">
@@ -20894,7 +20899,7 @@
       </c>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="8"/>
       <c r="C25" s="39"/>
       <c r="D25" s="17" t="s">
@@ -20910,7 +20915,7 @@
       </c>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="8"/>
       <c r="C26" s="39"/>
       <c r="D26" s="17" t="s">
@@ -20926,7 +20931,7 @@
       </c>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="37" t="s">
@@ -20942,7 +20947,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
@@ -20968,4 +20973,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88848A52-BEC6-4169-9927-5406FB658BB0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/spec/diary設計.xlsx
+++ b/spec/diary設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\takajava\org\diary\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B974884-2F16-4E3B-BDD7-B1F07EC8A23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B81697-6B50-4C70-995F-E77C741E8C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{558642B4-9CB4-4107-AB4B-02EB74888843}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{558642B4-9CB4-4107-AB4B-02EB74888843}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
     <sheet name="家計簿分類" sheetId="3" r:id="rId8"/>
     <sheet name="知識" sheetId="9" r:id="rId9"/>
+    <sheet name="移行" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">家計簿分類!$D$3:$G$28</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="747">
   <si>
     <t>設計書</t>
     <rPh sb="0" eb="3">
@@ -9856,6 +9857,1251 @@
   <si>
     <t>JavaScriptのフレームワーク</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>use('prod');</t>
+  </si>
+  <si>
+    <t>db.kakeibos.find({ p_date:/^2022-03/ });</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>  {</t>
+  </si>
+  <si>
+    <t>    },</t>
+  </si>
+  <si>
+    <t>      {</t>
+  </si>
+  <si>
+    <t>        },</t>
+  </si>
+  <si>
+    <t>      },</t>
+  </si>
+  <si>
+    <t>    ],</t>
+  </si>
+  <si>
+    <t>  },</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>    "_id": {</t>
+  </si>
+  <si>
+    <t>      "$oid": "6237d4cfb2fc640022b91938"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-03-12",</t>
+  </si>
+  <si>
+    <t>    "kakeibos": [</t>
+  </si>
+  <si>
+    <t>        "_id": {</t>
+  </si>
+  <si>
+    <t>          "$oid": "6237d4cfb2fc640022b91933"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "11:30",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKamoku": "出:食費",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "ザ・フレッシュ\n鶏モモ肉 700g",</t>
+  </si>
+  <si>
+    <t>        "kakeiboEtc": "",</t>
+  </si>
+  <si>
+    <t>        "kakeiboPayKbn": "現金",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 479</t>
+  </si>
+  <si>
+    <t>          "$oid": "6237d4cfb2fc640022b91934"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "16:46",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "スゴイも",</t>
+  </si>
+  <si>
+    <t>        "kakeiboPayKbn": "WAON",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 965</t>
+  </si>
+  <si>
+    <t>          "$oid": "6237d4cfb2fc640022b91935"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "16:28",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "業務スーパー",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 1642</t>
+  </si>
+  <si>
+    <t>    "__v": 0</t>
+  </si>
+  <si>
+    <t>      "$oid": "6237d654b2fc640022b91943"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-03-13",</t>
+  </si>
+  <si>
+    <t>          "$oid": "6237d654b2fc640022b9193f"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "15:56",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "サミット　豚もも肉カレー用",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 370</t>
+  </si>
+  <si>
+    <t>          "$oid": "6237d654b2fc640022b91940"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "16:02",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 929</t>
+  </si>
+  <si>
+    <t>      "$oid": "6237d772b2fc640022b91956"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-03-19",</t>
+  </si>
+  <si>
+    <t>          "$oid": "6237d772b2fc640022b91951"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "11:19",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 2427</t>
+  </si>
+  <si>
+    <t>          "$oid": "6237d772b2fc640022b91952"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "19:05",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "マルヤマ　白菜",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 160</t>
+  </si>
+  <si>
+    <t>          "$oid": "6237d772b2fc640022b91953"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "18:22",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKamoku": "出:外食費",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "おらが蕎麦",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 1350</t>
+  </si>
+  <si>
+    <t>      "$oid": "623a42bd056fe600220d11ed"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-03-22",</t>
+  </si>
+  <si>
+    <t>          "$oid": "623a42bd056fe600220d11e8"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "08:20",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKamoku": "出:交通費",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "電車",</t>
+  </si>
+  <si>
+    <t>        "kakeiboPayKbn": "Suica",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 157</t>
+  </si>
+  <si>
+    <t>          "$oid": "623a42bd056fe600220d11e9"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "20:40",</t>
+  </si>
+  <si>
+    <t>          "$oid": "623a42bd056fe600220d11ea"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "15:41",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "自販機ジュース",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 110</t>
+  </si>
+  <si>
+    <t>      "$oid": "623be6c05bc9830022c4c58e"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-03-23",</t>
+  </si>
+  <si>
+    <t>          "$oid": "623be6c05bc9830022c4c589"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "08:14",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "桜木町　横浜",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 136</t>
+  </si>
+  <si>
+    <t>          "$oid": "623be6c05bc9830022c4c58a"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "16:44",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "自販機　お茶",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 130</t>
+  </si>
+  <si>
+    <t>          "$oid": "623be6c05bc9830022c4c58b"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "19:13",</t>
+  </si>
+  <si>
+    <t>      "$oid": "623c7636e452430022dfc9d1"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-03-21",</t>
+  </si>
+  <si>
+    <t>          "$oid": "623c7636e452430022dfc9cd"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "15:27",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "業務スーパー\nうどん　ちくわ　きむち",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 392</t>
+  </si>
+  <si>
+    <t>          "$oid": "623c7636e452430022dfc9ce"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "15:40",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "マイバスケット\nスゴイモ",</t>
+  </si>
+  <si>
+    <t>      "$oid": "623e2f9d95b0fe0022a8be33"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-03-25",</t>
+  </si>
+  <si>
+    <t>          "$oid": "623e2f9d95b0fe0022a8be2e"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "14:07",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "お茶",</t>
+  </si>
+  <si>
+    <t>          "$oid": "623e2f9d95b0fe0022a8be2f"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "20:07",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKamoku": "出:日用品費",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "ダイソー\nボトルケース",</t>
+  </si>
+  <si>
+    <t>          "$oid": "623e2f9d95b0fe0022a8be30"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "20:25",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "横浜から黄金町",</t>
+  </si>
+  <si>
+    <t>      "$oid": "623eba0cfb2a9d0022deddf4"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-03-26",</t>
+  </si>
+  <si>
+    <t>          "$oid": "623eba0cfb2a9d0022dedded"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "22:21",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "スーツ　クリーニング",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 1155</t>
+  </si>
+  <si>
+    <t>          "$oid": "623eba0cfb2a9d0022deddee"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "11:01",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "キャロット　野菜",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 743</t>
+  </si>
+  <si>
+    <t>          "$oid": "623eba0cfb2a9d0022deddef"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "10:35",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "デリカキング\nチキンカツ",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 340</t>
+  </si>
+  <si>
+    <t>          "$oid": "623eba0cfb2a9d0022deddf0"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "10:57",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 1580</t>
+  </si>
+  <si>
+    <t>          "$oid": "623eba0cfb2a9d0022deddf1"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "12:41",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "からみそラーメンふくろう",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 1310</t>
+  </si>
+  <si>
+    <t>      "$oid": "623ed2b8f963dd002228def2"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-03-24",</t>
+  </si>
+  <si>
+    <t>          "$oid": "623ed2b8f963dd002228deed"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "12:27",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKamoku": "残:残高",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "残高",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 10194</t>
+  </si>
+  <si>
+    <t>          "$oid": "623ed2b8f963dd002228deee"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "16:47",</t>
+  </si>
+  <si>
+    <t>          "$oid": "623ed2b8f963dd002228deef"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "20:12",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "横浜　黄金町",</t>
+  </si>
+  <si>
+    <t>      "$oid": "623ffa612cd5b10022ef440b"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-03-27",</t>
+  </si>
+  <si>
+    <t>          "$oid": "623ffa612cd5b10022ef4406"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "12:00",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "　",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 1250</t>
+  </si>
+  <si>
+    <t>          "$oid": "623ffa612cd5b10022ef4407"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "13:12",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "ダイソー",</t>
+  </si>
+  <si>
+    <t>          "$oid": "623ffa612cd5b10022ef4408"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "13:53",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 338</t>
+  </si>
+  <si>
+    <t>      "$oid": "6241a3155f591f002262101f"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-03-28",</t>
+  </si>
+  <si>
+    <t>          "$oid": "6241a3155f591f002262101c"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "20:57",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "横浜〜黄金町",</t>
+  </si>
+  <si>
+    <t>      "$oid": "6244c463a970350022967815"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-03-30",</t>
+  </si>
+  <si>
+    <t>          "$oid": "6244c463a970350022967811"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "19:10",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "横浜～黄金町",</t>
+  </si>
+  <si>
+    <t>          "$oid": "6244c463a970350022967812"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "19:30",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "セブンイレブン（晩飯）",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 672</t>
+  </si>
+  <si>
+    <t>      "$oid": "62461e096459770022ba88a1"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-03-29",</t>
+  </si>
+  <si>
+    <t>          "$oid": "62461e096459770022ba889e"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "20:31",</t>
+  </si>
+  <si>
+    <t>      "$oid": "62461f736459770022ba88aa"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-03-31",</t>
+  </si>
+  <si>
+    <t>          "$oid": "62461f736459770022ba88a4"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "18:33",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKamoku": "振:口座",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "",</t>
+  </si>
+  <si>
+    <t>        "kakeiboPayKbn": "Paypay銀行",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 16000</t>
+  </si>
+  <si>
+    <t>          "$oid": "62461f736459770022ba88a5"</t>
+  </si>
+  <si>
+    <t>        "kakeiboKamoku": "入:入金",</t>
+  </si>
+  <si>
+    <t>          "$oid": "62461f736459770022ba88a6"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "19:00",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "玉井さん、河野さんと飲み会",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 4000</t>
+  </si>
+  <si>
+    <t>          "$oid": "62461f736459770022ba88a7"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "21:00",</t>
+  </si>
+  <si>
+    <t>      "$oid": "624778badb60e50022a2fa7b"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-01",</t>
+  </si>
+  <si>
+    <t>          "$oid": "624778badb60e50022a2fa75"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "08:25",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "黄金町〜横浜",</t>
+  </si>
+  <si>
+    <t>          "$oid": "624778badb60e50022a2fa76"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "18:26",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "弁当",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 602</t>
+  </si>
+  <si>
+    <t>          "$oid": "624778badb60e50022a2fa77"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "18:15",</t>
+  </si>
+  <si>
+    <t>          "$oid": "624778badb60e50022a2fa78"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "08:35",</t>
+  </si>
+  <si>
+    <t>        "kakeiboPayKbn": "三井住友銀行",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 10000</t>
+  </si>
+  <si>
+    <t>      "$oid": "624826dab7c11d00226633f7"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-02",</t>
+  </si>
+  <si>
+    <t>          "$oid": "624826dab7c11d00226633f1"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "10:24",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "クリーニング",</t>
+  </si>
+  <si>
+    <t>          "$oid": "624826dab7c11d00226633f2"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "12:01",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "図書館　食事",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 750</t>
+  </si>
+  <si>
+    <t>          "$oid": "624826dab7c11d00226633f3"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "16:05",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "やさい",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 510</t>
+  </si>
+  <si>
+    <t>          "$oid": "624826dab7c11d00226633f4"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "16:34",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 3102</t>
+  </si>
+  <si>
+    <t>      "$oid": "624a176ad87d250022c9ca45"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-03",</t>
+  </si>
+  <si>
+    <t>          "$oid": "624a176ad87d250022c9ca3d"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "09:35",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "こくいも",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 987</t>
+  </si>
+  <si>
+    <t>          "$oid": "624a176ad87d250022c9ca3e"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "09:23",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "業務スーパー　\n串カツ　コロッケ",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 780</t>
+  </si>
+  <si>
+    <t>          "$oid": "624a176ad87d250022c9ca3f"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "12:21",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "ラーメン",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 1050</t>
+  </si>
+  <si>
+    <t>          "$oid": "624a176ad87d250022c9ca40"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "13:40",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "缶ピール",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 255</t>
+  </si>
+  <si>
+    <t>          "$oid": "624a176ad87d250022c9ca41"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "15:00",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "生ビール＆フランクフルト",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 1200</t>
+  </si>
+  <si>
+    <t>          "$oid": "624a176ad87d250022c9ca42"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "16:00",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "ホットワイン＆おでん",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 1000</t>
+  </si>
+  <si>
+    <t>      "$oid": "624cd40a61e436002223d3fb"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-04",</t>
+  </si>
+  <si>
+    <t>          "$oid": "624cd40a61e436002223d3f8"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "19:42",</t>
+  </si>
+  <si>
+    <t>      "$oid": "624e08c7442e310022ac18f5"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-05",</t>
+  </si>
+  <si>
+    <t>          "$oid": "624e08c7442e310022ac18f1"</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "黄金町～横浜",</t>
+  </si>
+  <si>
+    <t>          "$oid": "624e08c7442e310022ac18f2"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "18:30",</t>
+  </si>
+  <si>
+    <t>      "$oid": "624e09c5442e310022ac18fc"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-06",</t>
+  </si>
+  <si>
+    <t>          "$oid": "624e09c5442e310022ac18f7"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "08:22",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "日ノ出町～横浜",</t>
+  </si>
+  <si>
+    <t>          "$oid": "624e09c5442e310022ac18f8"</t>
+  </si>
+  <si>
+    <t>          "$oid": "624e09c5442e310022ac18f9"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "20:20",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "横浜～日ノ出町",</t>
+  </si>
+  <si>
+    <t>      "$oid": "624f4483c0956c00223c5f1e"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-07",</t>
+  </si>
+  <si>
+    <t>          "$oid": "624f4483c0956c00223c5f19"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "14:03",</t>
+  </si>
+  <si>
+    <t>          "$oid": "624f4483c0956c00223c5f1a"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "19:51",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "ファイル　糸ようじ",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 224</t>
+  </si>
+  <si>
+    <t>          "$oid": "624f4483c0956c00223c5f1b"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "19:15",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "横浜〜日ノ出町",</t>
+  </si>
+  <si>
+    <t>      "$oid": "62510165a75f5800226fec1b"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-08",</t>
+  </si>
+  <si>
+    <t>          "$oid": "62510165a75f5800226fec15"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "08:21",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "横浜〜日ノ出",</t>
+  </si>
+  <si>
+    <t>          "$oid": "62510165a75f5800226fec16"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "14:43",</t>
+  </si>
+  <si>
+    <t>          "$oid": "62510165a75f5800226fec17"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "19:01",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "カップヌードル",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 88</t>
+  </si>
+  <si>
+    <t>          "$oid": "62510165a75f5800226fec18"</t>
+  </si>
+  <si>
+    <t>      "$oid": "625203060f56f900224a4d31"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-09",</t>
+  </si>
+  <si>
+    <t>          "$oid": "625203060f56f900224a4d29"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "10:50",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "ゴミ袋　ダイソー",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 220</t>
+  </si>
+  <si>
+    <t>          "$oid": "625203060f56f900224a4d2a"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "11:00",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "やさいや",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 540</t>
+  </si>
+  <si>
+    <t>          "$oid": "625203060f56f900224a4d2b"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "11:20",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 1175</t>
+  </si>
+  <si>
+    <t>          "$oid": "625203060f56f900224a4d2c"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "16:40",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "電池",</t>
+  </si>
+  <si>
+    <t>          "$oid": "625203060f56f900224a4d2d"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "16:55",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "サミット　カレー",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 476</t>
+  </si>
+  <si>
+    <t>          "$oid": "625203060f56f900224a4d2e"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "17:03",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "よこはまばし　",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 400</t>
+  </si>
+  <si>
+    <t>      "$oid": "62528ad3c94d8f0022a739c8"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-10",</t>
+  </si>
+  <si>
+    <t>          "$oid": "62528ad3c94d8f0022a739c1"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "11:43",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "ビール　サキイカ",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 281</t>
+  </si>
+  <si>
+    <t>          "$oid": "62528ad3c94d8f0022a739c2"</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "石鹸 hac",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 283</t>
+  </si>
+  <si>
+    <t>          "$oid": "62528ad3c94d8f0022a739c3"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "12:05",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "鶏笑",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 790</t>
+  </si>
+  <si>
+    <t>          "$oid": "62528ad3c94d8f0022a739c4"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "12:16",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 372</t>
+  </si>
+  <si>
+    <t>          "$oid": "62528ad3c94d8f0022a739c5"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "16:43",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "マイバスケットボール",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 107</t>
+  </si>
+  <si>
+    <t>      "$oid": "6254bdcdd2201a0022790c3b"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-11",</t>
+  </si>
+  <si>
+    <t>          "$oid": "6254bdcdd2201a0022790c36"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "08:19",</t>
+  </si>
+  <si>
+    <t>          "$oid": "6254bdcdd2201a0022790c37"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "18:44",</t>
+  </si>
+  <si>
+    <t>          "$oid": "6254bdcdd2201a0022790c38"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "16:45",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "缶コーヒー",</t>
+  </si>
+  <si>
+    <t>      "$oid": "625731356398680022c121f4"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-12",</t>
+  </si>
+  <si>
+    <t>          "$oid": "625731356398680022c121ef"</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "戸部～横浜",</t>
+  </si>
+  <si>
+    <t>          "$oid": "625731356398680022c121f0"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "19:21",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "日ノ出町でとんかつ＋ビール",</t>
+  </si>
+  <si>
+    <t>          "$oid": "625731356398680022c121f1"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "19:29",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 1386</t>
+  </si>
+  <si>
+    <t>      "$oid": "62588a18e7cc650022609ccd"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-13",</t>
+  </si>
+  <si>
+    <t>          "$oid": "62588a18e7cc650022609cc9"</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "黄金町から横浜",</t>
+  </si>
+  <si>
+    <t>          "$oid": "62588a18e7cc650022609cca"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "18:20",</t>
+  </si>
+  <si>
+    <t>      "$oid": "62588adbe7cc650022609cd4"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-14",</t>
+  </si>
+  <si>
+    <t>          "$oid": "62588adbe7cc650022609ccf"</t>
+  </si>
+  <si>
+    <t>          "$oid": "62588adbe7cc650022609cd0"</t>
+  </si>
+  <si>
+    <t>          "$oid": "62588adbe7cc650022609cd1"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "19:40",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "まいばすけっと　すごいも",</t>
+  </si>
+  <si>
+    <t>      "$oid": "625b43cff2550300222be2e2"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-15",</t>
+  </si>
+  <si>
+    <t>          "$oid": "625b43cff2550300222be2de"</t>
+  </si>
+  <si>
+    <t>          "$oid": "625b43cff2550300222be2df"</t>
+  </si>
+  <si>
+    <t>      "$oid": "625b45e8f2550300222be2f3"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-16",</t>
+  </si>
+  <si>
+    <t>          "$oid": "625b45e8f2550300222be2ec"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "07:16",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "コメ等　業務スーパー",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 1879</t>
+  </si>
+  <si>
+    <t>          "$oid": "625b45e8f2550300222be2ed"</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "角守青果",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 1030</t>
+  </si>
+  <si>
+    <t>          "$oid": "625b45e8f2550300222be2ee"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "11:42",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 1118</t>
+  </si>
+  <si>
+    <t>          "$oid": "625b45e8f2550300222be2ef"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "11:51",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "鶏笑\nからあげ弁当　ビール　かわ",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 990</t>
+  </si>
+  <si>
+    <t>          "$oid": "625b45e8f2550300222be2f0"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "11:05",</t>
+  </si>
+  <si>
+    <t>        "kakeiboPayKbn": "Paypay",</t>
+  </si>
+  <si>
+    <t>      "$oid": "625c90fb142ce800220f248f"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-17",</t>
+  </si>
+  <si>
+    <t>          "$oid": "625c90fb142ce800220f248c"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "14:00",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "下村さん、河野さんと飲み会",</t>
+  </si>
+  <si>
+    <t>      "$oid": "625de95a9a5a9900226354bf"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-18",</t>
+  </si>
+  <si>
+    <t>          "$oid": "625de95a9a5a9900226354bb"</t>
+  </si>
+  <si>
+    <t>          "$oid": "625de95a9a5a9900226354bc"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "18:41",</t>
+  </si>
+  <si>
+    <t>      "$oid": "62607cbb33b51f00227c132a"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-20",</t>
+  </si>
+  <si>
+    <t>          "$oid": "62607cbb33b51f00227c1325"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "15:31",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "缶ジュース",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 150</t>
+  </si>
+  <si>
+    <t>          "$oid": "62607cbb33b51f00227c1326"</t>
+  </si>
+  <si>
+    <t>          "$oid": "62607cbb33b51f00227c1327"</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "鶏笑　中津からあげとビール",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 720</t>
+  </si>
+  <si>
+    <t>      "$oid": "626158c89e6aae0022f4178d"</t>
+  </si>
+  <si>
+    <t>    "p_date": "2022-04-21",</t>
+  </si>
+  <si>
+    <t>          "$oid": "626158c89e6aae0022f41786"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "08:24",</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "戸部〜横浜",</t>
+  </si>
+  <si>
+    <t>          "$oid": "626158c89e6aae0022f41787"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "19:09",</t>
+  </si>
+  <si>
+    <t>          "$oid": "626158c89e6aae0022f41788"</t>
+  </si>
+  <si>
+    <t>        "kakeiboTime": "19:18",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 3000</t>
+  </si>
+  <si>
+    <t>          "$oid": "626158c89e6aae0022f41789"</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "マイバスケット\n",</t>
+  </si>
+  <si>
+    <t>        "kakeiboKingaku": 1850</t>
+  </si>
+  <si>
+    <t>          "$oid": "626158c89e6aae0022f4178a"</t>
+  </si>
+  <si>
+    <t>        "kakeiboDetail": "ワオン",</t>
   </si>
 </sst>
 </file>
@@ -12474,6 +13720,6983 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413A1590-98B3-4729-BEE5-23F3D02CF8C7}">
+  <dimension ref="B2:B1395"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A1365" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B1395"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B104" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B105" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B106" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B107" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B108" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B109" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B110" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B115" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B116" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B117" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B118" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B119" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B120" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B121" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B122" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B123" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B124" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B125" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B126" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B127" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B128" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B129" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B130" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B131" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B132" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B133" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B134" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B135" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B136" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B137" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B138" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B139" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B140" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B141" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B142" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B143" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B144" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B145" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B146" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B147" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B148" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B149" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B150" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B151" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B152" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B153" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B154" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B155" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B156" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B157" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B158" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B159" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B160" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B161" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B162" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B163" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B164" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B165" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B166" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B167" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B168" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B169" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B170" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B171" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B172" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B173" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B174" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B175" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B176" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B177" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B178" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B179" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B180" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B181" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B182" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B183" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B184" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B185" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B186" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B187" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B188" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B189" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B190" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B191" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B192" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B193" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B194" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B195" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B196" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B197" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B198" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B199" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B200" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B201" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B202" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B203" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B204" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B205" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B206" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B207" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B208" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B209" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B210" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B211" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B212" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B213" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B214" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B215" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B216" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B217" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B218" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B219" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B220" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B221" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B222" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B223" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B224" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B225" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B226" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B227" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B228" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B229" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B230" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B231" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B232" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B233" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B234" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B235" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B236" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B237" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B238" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B239" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B240" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B241" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B242" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B243" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B244" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B245" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B246" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B247" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B248" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B249" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B250" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B251" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B252" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B253" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B254" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B255" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B256" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B257" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B258" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B259" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B260" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B261" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B262" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B263" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B264" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B265" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B266" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B267" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B268" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B269" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B270" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B271" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B272" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B273" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B274" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B275" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B276" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B277" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B278" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B279" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B280" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B281" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B282" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B283" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B284" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B285" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B286" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B287" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B288" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B289" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B290" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B291" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B292" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B293" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B294" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B295" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B296" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B297" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B298" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B299" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B300" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B301" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B302" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B303" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B304" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B305" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B306" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B307" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B308" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B309" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B310" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B311" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B312" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B313" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B314" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B315" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B316" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B317" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B318" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B319" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B320" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B321" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B322" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B323" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B324" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B325" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B326" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B327" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B328" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B329" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B330" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B331" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B332" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B333" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B334" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B335" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B336" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B337" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B338" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B339" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B340" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B341" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B342" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B343" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B344" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B345" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B346" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B347" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B348" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B349" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B350" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B351" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B352" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B353" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B354" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B355" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B356" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B357" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B358" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B359" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B360" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B361" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B362" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B363" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B364" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B365" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B366" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B367" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B368" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B369" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B370" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B371" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B372" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B373" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B374" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B375" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B376" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B377" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B378" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B379" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B380" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B381" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B382" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B383" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B384" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B385" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B386" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B387" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B388" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B389" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B390" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B391" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B392" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B393" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B394" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B395" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B396" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B397" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B398" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B399" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B400" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B401" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B402" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B403" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B404" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B405" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B406" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B407" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B408" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B409" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B410" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B411" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B412" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B413" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B414" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B415" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B416" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B417" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B418" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B419" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B420" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B421" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B422" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B423" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B424" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B425" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B426" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B427" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B428" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B429" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B430" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B431" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B432" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B433" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B434" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B435" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B436" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B437" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B438" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B439" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B440" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B441" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B442" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B443" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B444" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B445" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B446" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B447" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B448" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B449" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B450" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B451" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B452" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B453" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B454" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B455" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B456" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B457" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B458" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B459" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B460" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B461" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B462" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B463" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B464" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B465" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B466" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B467" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B468" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B469" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B470" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B471" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B472" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B473" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B474" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B475" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B476" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B477" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B478" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B479" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B480" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B481" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B482" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B483" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B484" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B485" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B486" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B487" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B488" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B489" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B490" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B491" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B492" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B493" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B494" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B495" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B496" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B497" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B498" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B499" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B500" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B501" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B502" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B503" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B504" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B505" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B506" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B507" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B508" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B509" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B510" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B511" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B512" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B513" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B514" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B515" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B516" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B517" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B518" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B519" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B520" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B521" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B522" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B523" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B524" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B525" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B526" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B527" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B528" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B529" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B530" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B531" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B532" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="533" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B533" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="534" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B534" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B535" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="536" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B536" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B537" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="538" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B538" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="539" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B539" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B540" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B541" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B542" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B543" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B544" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B545" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B546" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B547" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B548" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B549" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B550" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B551" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="552" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B552" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B553" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B554" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B555" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="556" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B556" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="557" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B557" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="558" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B558" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="559" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B559" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="560" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B560" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="561" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B561" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="562" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B562" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="563" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B563" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="564" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B564" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="565" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B565" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="566" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B566" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="567" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B567" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B568" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B569" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B570" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B571" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="572" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B572" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B573" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B574" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B575" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B576" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B577" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="578" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B578" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B579" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="580" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B580" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B581" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="582" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B582" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B583" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B584" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="585" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B585" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="586" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B586" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="587" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B587" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="588" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B588" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="589" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B589" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="590" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B590" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="591" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B591" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="592" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B592" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B593" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B594" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="595" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B595" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B596" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B597" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="598" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B598" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="599" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B599" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="600" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B600" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="601" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B601" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="602" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B602" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="603" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B603" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="604" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B604" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="605" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B605" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="606" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B606" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="607" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B607" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="608" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B608" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="609" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B609" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="610" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B610" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="611" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B611" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="612" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B612" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="613" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B613" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="614" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B614" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="615" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B615" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="616" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B616" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="617" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B617" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="618" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B618" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="619" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B619" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="620" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B620" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="621" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B621" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="622" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B622" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="623" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B623" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="624" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B624" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="625" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B625" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="626" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B626" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="627" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B627" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="628" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B628" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="629" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B629" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="630" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B630" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="631" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B631" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="632" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B632" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="633" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B633" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="634" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B634" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="635" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B635" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="636" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B636" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="637" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B637" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="638" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B638" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="639" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B639" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="640" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B640" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="641" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B641" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="642" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B642" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="643" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B643" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="644" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B644" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="645" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B645" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="646" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B646" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="647" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B647" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="648" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B648" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="649" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B649" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="650" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B650" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="651" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B651" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="652" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B652" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="653" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B653" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="654" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B654" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="655" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B655" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="656" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B656" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="657" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B657" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="658" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B658" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="659" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B659" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="660" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B660" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="661" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B661" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="662" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B662" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="663" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B663" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="664" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B664" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="665" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B665" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="666" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B666" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="667" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B667" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="668" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B668" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="669" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B669" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="670" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B670" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="671" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B671" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="672" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B672" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="673" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B673" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="674" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B674" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="675" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B675" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="676" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B676" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="677" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B677" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="678" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B678" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="679" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B679" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="680" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B680" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="681" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B681" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="682" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B682" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="683" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B683" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="684" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B684" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="685" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B685" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="686" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B686" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="687" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B687" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="688" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B688" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="689" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B689" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="690" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B690" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="691" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B691" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="692" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B692" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="693" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B693" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="694" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B694" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="695" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B695" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="696" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B696" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="697" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B697" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="698" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B698" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="699" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B699" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="700" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B700" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="701" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B701" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="702" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B702" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="703" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B703" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="704" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B704" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="705" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B705" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="706" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B706" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="707" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B707" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="708" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B708" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="709" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B709" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="710" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B710" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="711" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B711" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="712" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B712" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="713" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B713" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="714" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B714" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="715" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B715" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="716" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B716" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="717" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B717" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="718" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B718" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="719" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B719" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="720" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B720" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="721" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B721" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="722" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B722" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="723" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B723" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="724" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B724" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="725" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B725" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="726" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B726" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="727" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B727" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="728" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B728" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="729" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B729" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="730" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B730" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="731" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B731" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="732" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B732" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="733" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B733" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="734" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B734" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="735" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B735" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="736" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B736" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="737" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B737" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="738" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B738" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="739" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B739" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="740" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B740" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="741" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B741" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="742" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B742" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="743" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B743" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="744" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B744" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="745" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B745" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="746" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B746" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="747" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B747" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="748" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B748" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="749" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B749" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="750" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B750" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="751" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B751" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="752" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B752" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="753" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B753" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="754" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B754" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="755" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B755" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="756" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B756" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="757" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B757" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="758" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B758" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="759" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B759" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="760" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B760" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="761" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B761" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="762" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B762" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="763" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B763" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="764" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B764" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="765" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B765" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="766" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B766" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="767" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B767" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="768" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B768" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="769" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B769" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="770" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B770" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="771" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B771" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="772" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B772" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="773" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B773" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="774" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B774" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="775" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B775" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="776" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B776" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="777" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B777" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="778" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B778" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="779" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B779" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="780" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B780" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="781" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B781" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="782" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B782" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="783" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B783" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="784" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B784" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="785" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B785" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="786" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B786" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="787" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B787" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="788" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B788" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="789" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B789" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="790" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B790" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="791" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B791" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="792" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B792" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="793" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B793" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="794" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B794" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="795" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B795" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="796" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B796" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="797" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B797" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="798" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B798" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="799" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B799" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="800" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B800" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="801" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B801" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="802" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B802" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="803" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B803" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="804" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B804" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="805" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B805" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="806" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B806" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="807" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B807" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="808" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B808" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="809" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B809" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="810" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B810" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="811" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B811" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="812" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B812" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="813" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B813" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="814" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B814" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="815" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B815" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="816" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B816" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="817" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B817" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="818" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B818" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="819" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B819" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="820" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B820" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="821" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B821" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="822" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B822" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="823" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B823" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="824" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B824" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="825" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B825" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="826" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B826" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="827" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B827" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="828" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B828" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="829" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B829" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="830" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B830" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="831" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B831" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="832" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B832" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="833" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B833" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="834" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B834" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="835" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B835" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="836" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B836" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="837" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B837" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="838" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B838" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="839" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B839" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="840" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B840" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="841" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B841" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="842" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B842" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="843" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B843" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="844" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B844" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="845" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B845" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="846" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B846" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="847" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B847" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="848" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B848" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="849" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B849" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="850" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B850" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="851" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B851" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="852" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B852" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="853" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B853" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="854" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B854" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="855" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B855" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="856" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B856" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="857" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B857" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="858" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B858" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="859" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B859" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="860" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B860" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="861" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B861" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="862" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B862" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="863" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B863" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="864" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B864" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="865" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B865" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="866" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B866" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="867" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B867" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="868" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B868" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="869" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B869" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="870" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B870" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="871" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B871" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="872" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B872" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="873" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B873" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="874" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B874" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="875" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B875" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="876" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B876" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="877" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B877" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="878" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B878" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="879" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B879" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="880" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B880" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="881" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B881" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="882" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B882" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="883" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B883" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="884" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B884" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="885" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B885" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="886" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B886" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="887" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B887" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="888" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B888" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="889" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B889" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="890" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B890" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="891" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B891" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="892" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B892" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="893" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B893" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="894" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B894" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="895" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B895" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="896" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B896" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="897" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B897" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="898" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B898" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="899" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B899" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="900" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B900" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="901" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B901" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="902" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B902" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="903" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B903" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="904" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B904" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="905" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B905" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="906" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B906" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="907" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B907" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="908" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B908" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="909" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B909" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="910" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B910" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="911" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B911" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="912" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B912" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="913" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B913" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="914" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B914" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="915" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B915" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="916" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B916" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="917" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B917" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="918" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B918" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="919" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B919" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="920" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B920" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="921" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B921" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="922" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B922" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="923" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B923" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="924" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B924" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="925" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B925" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="926" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B926" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="927" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B927" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="928" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B928" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="929" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B929" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="930" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B930" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="931" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B931" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="932" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B932" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="933" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B933" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="934" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B934" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="935" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B935" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="936" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B936" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="937" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B937" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="938" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B938" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="939" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B939" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="940" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B940" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="941" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B941" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="942" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B942" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="943" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B943" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="944" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B944" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="945" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B945" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="946" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B946" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="947" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B947" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="948" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B948" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="949" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B949" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="950" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B950" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="951" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B951" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="952" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B952" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="953" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B953" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="954" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B954" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="955" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B955" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="956" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B956" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="957" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B957" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="958" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B958" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="959" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B959" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="960" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B960" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="961" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B961" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="962" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B962" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="963" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B963" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="964" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B964" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="965" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B965" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="966" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B966" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="967" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B967" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="968" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B968" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="969" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B969" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="970" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B970" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="971" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B971" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="972" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B972" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="973" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B973" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="974" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B974" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="975" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B975" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="976" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B976" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="977" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B977" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="978" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B978" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="979" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B979" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="980" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B980" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="981" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B981" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="982" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B982" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="983" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B983" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="984" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B984" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="985" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B985" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="986" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B986" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="987" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B987" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="988" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B988" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="989" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B989" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="990" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B990" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="991" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B991" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="992" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B992" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="993" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B993" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="994" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B994" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="995" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B995" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="996" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B996" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="997" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B997" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="998" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B998" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="999" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B999" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1000" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1000" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="1001" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1001" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1002" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1002" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1003" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1003" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1004" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1004" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1005" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1005" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1006" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1006" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1007" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1007" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="1008" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1008" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="1009" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1009" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="1010" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1010" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="1011" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1011" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1012" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1012" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1013" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1013" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1014" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1014" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1015" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1015" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1016" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1016" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1017" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1017" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="1018" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1018" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1019" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1019" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="1020" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1020" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1021" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1021" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1022" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1022" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1023" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1023" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="1024" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1024" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1025" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1025" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="1026" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1026" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1027" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1027" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="1028" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1028" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="1029" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1029" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1030" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1030" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1031" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1031" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1032" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1032" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1033" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1033" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="1034" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1034" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1035" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1035" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="1036" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1036" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1037" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1037" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="1038" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1038" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="1039" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1039" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="1040" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1040" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1041" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1041" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1042" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1042" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1043" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1043" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="1044" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1044" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1045" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1045" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1046" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1046" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="1047" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1047" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="1048" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1048" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1049" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1049" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="1050" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1050" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1051" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1051" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1052" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1052" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1053" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1053" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1054" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1054" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1055" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1055" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1056" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1056" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="1057" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1057" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1058" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1058" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="1059" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1059" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1060" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1060" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1061" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1061" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1062" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1062" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="1063" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1063" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1064" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1064" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="1065" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1065" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1066" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1066" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1067" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1067" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="1068" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1068" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="1069" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1069" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1070" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1070" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1071" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1071" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1072" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1072" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="1073" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1073" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1074" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1074" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="1075" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1075" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1076" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1076" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="1077" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1077" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1078" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1078" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="1079" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1079" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1080" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1080" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1081" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1081" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1082" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1082" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="1083" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1083" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1084" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1084" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1085" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1085" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="1086" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1086" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="1087" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1087" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1088" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1088" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="1089" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1089" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1090" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1090" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1091" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1091" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1092" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1092" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1093" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1093" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1094" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1094" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1095" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1095" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="1096" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1096" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1097" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1097" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="1098" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1098" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1099" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1099" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1100" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1100" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1101" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1101" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="1102" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1102" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1103" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1103" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="1104" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1104" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1105" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1105" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="1106" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1106" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="1107" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1107" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1108" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1108" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1109" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1109" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1110" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1110" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1111" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1111" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="1112" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1112" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1113" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1113" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="1114" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1114" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1115" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1115" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1116" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1116" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="1117" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1117" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1118" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1118" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1119" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1119" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1120" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1120" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1121" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1121" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1122" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1122" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1123" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1123" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1124" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1124" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="1125" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1125" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1126" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1126" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1127" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1127" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1128" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1128" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1129" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1129" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1130" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1130" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="1131" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1131" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1132" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1132" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="1133" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1133" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1134" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1134" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="1135" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1135" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="1136" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1136" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1137" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1137" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1138" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1138" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1139" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1139" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1140" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1140" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1141" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1141" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1142" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1142" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="1143" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1143" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1144" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1144" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1145" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1145" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="1146" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1146" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1147" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1147" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1148" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1148" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1149" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1149" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1150" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1150" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1151" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1151" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1152" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1152" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="1153" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1153" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="1154" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1154" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="1155" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1155" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="1156" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1156" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1157" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1157" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1158" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1158" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1159" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1159" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1160" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1160" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1161" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1161" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1162" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1162" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1163" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1163" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="1164" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1164" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1165" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1165" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="1166" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1166" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1167" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1167" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1168" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1168" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1169" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1169" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1170" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1170" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1171" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1171" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="1172" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1172" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1173" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1173" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="1174" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1174" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="1175" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1175" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1176" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1176" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1177" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1177" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1178" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1178" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1179" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1179" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="1180" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1180" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1181" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1181" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="1182" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1182" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1183" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1183" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="1184" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1184" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="1185" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1185" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1186" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1186" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1187" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1187" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1188" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1188" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1189" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1189" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1190" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1190" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1191" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1191" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1192" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1192" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1193" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1193" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1194" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1194" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="1195" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1195" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1196" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1196" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1197" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1197" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1198" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1198" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="1199" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1199" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1200" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1200" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="1201" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1201" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="1202" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1202" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="1203" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1203" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1204" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1204" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="1205" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1205" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1206" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1206" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1207" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1207" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1208" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1208" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="1209" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1209" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1210" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1210" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1211" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1211" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="1212" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1212" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1213" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1213" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1214" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1214" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="1215" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1215" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1216" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1216" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1217" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1217" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1218" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1218" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="1219" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1219" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1220" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1220" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="1221" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1221" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="1222" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1222" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="1223" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1223" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1224" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1224" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="1225" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1225" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1226" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1226" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1227" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1227" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1228" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1228" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="1229" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1229" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1230" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1230" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="1231" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1231" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1232" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1232" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="1233" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1233" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1234" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1234" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="1235" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1235" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1236" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1236" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1237" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1237" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1238" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1238" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="1239" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1239" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1240" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1240" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="1241" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1241" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="1242" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1242" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="1243" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1243" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="1244" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1244" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="1245" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1245" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1246" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1246" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1247" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1247" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1248" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1248" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1249" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1249" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1250" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1250" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1251" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1251" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1252" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1252" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1253" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1253" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="1254" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1254" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1255" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1255" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1256" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1256" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1257" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1257" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="1258" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1258" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1259" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1259" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="1260" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1260" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1261" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1261" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1262" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1262" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1263" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1263" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1264" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1264" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1265" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1265" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1266" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1266" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1267" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1267" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1268" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1268" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1269" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1269" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1270" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1270" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1271" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1271" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1272" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1272" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="1273" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1273" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1274" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1274" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1275" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1275" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1276" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1276" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="1277" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1277" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1278" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1278" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="1279" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1279" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1280" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1280" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1281" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1281" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="1282" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1282" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="1283" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1283" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1284" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1284" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1285" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1285" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1286" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1286" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1287" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1287" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1288" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1288" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="1289" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1289" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1290" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1290" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="1291" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1291" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="1292" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1292" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1293" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1293" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1294" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1294" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1295" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1295" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1296" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1296" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1297" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1297" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1298" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1298" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1299" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1299" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="1300" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1300" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1301" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1301" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="1302" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1302" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1303" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1303" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1304" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1304" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1305" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1305" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="1306" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1306" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1307" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1307" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="1308" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1308" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="1309" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1309" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1310" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1310" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1311" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1311" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1312" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1312" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1313" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1313" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1314" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1314" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1315" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1315" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1316" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1316" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1317" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1317" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="1318" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1318" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1319" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1319" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="1320" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1320" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="1321" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1321" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1322" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1322" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1323" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1323" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1324" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1324" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1325" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1325" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="1326" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1326" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1327" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1327" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="1328" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1328" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="1329" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1329" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1330" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1330" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1331" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1331" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="1332" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1332" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1333" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1333" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1334" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1334" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1335" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1335" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1336" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1336" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1337" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1337" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1338" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1338" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="1339" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1339" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1340" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1340" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="1341" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1341" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1342" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1342" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1343" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1343" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1344" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1344" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1345" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1345" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1346" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1346" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1347" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1347" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1348" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1348" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1349" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1349" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="1350" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1350" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="1351" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1351" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1352" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1352" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1353" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1353" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1354" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1354" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1355" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1355" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1356" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1356" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="1357" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1357" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1358" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1358" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="1359" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1359" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="1360" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1360" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1361" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1361" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1362" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1362" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1363" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1363" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1364" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1364" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="1365" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1365" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1366" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1366" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="1367" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1367" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1368" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1368" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="1369" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1369" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="1370" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1370" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="1371" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1371" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1372" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1372" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1373" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1373" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1374" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1374" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1375" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1375" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1376" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1376" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="1377" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1377" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="1378" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1378" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1379" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1379" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="1380" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1380" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="1381" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1381" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1382" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1382" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1383" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1383" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1384" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1384" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="1385" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1385" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1386" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1386" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="1387" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1387" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="1388" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1388" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1389" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1389" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1390" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1390" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="1391" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1391" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1392" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1392" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1393" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1393" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1394" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1394" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1395" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1395" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1538481-7342-4CDD-AE8B-3F1BB25C4581}">
   <dimension ref="C1:AD43"/>
@@ -20979,7 +29202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88848A52-BEC6-4169-9927-5406FB658BB0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
